--- a/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_insurance_life.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.126505</v>
+        <v>0.08975000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.126</v>
+        <v>-0.08259999999999999</v>
       </c>
       <c r="G2">
-        <v>0.01156485929993137</v>
+        <v>0.0427957605270696</v>
       </c>
       <c r="H2">
-        <v>0.01156485929993137</v>
+        <v>0.0427957605270696</v>
       </c>
       <c r="I2">
-        <v>0.01685613801504629</v>
+        <v>0.04219421369235176</v>
       </c>
       <c r="J2">
-        <v>0.0131013575709761</v>
+        <v>0.03265898587368644</v>
       </c>
       <c r="K2">
-        <v>0.8000000000000003</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="L2">
-        <v>0.002745367192862047</v>
+        <v>0.01257519335433973</v>
       </c>
       <c r="M2">
-        <v>7.3928</v>
+        <v>6.37</v>
       </c>
       <c r="N2">
-        <v>0.04238990825688074</v>
+        <v>0.04125647668393782</v>
       </c>
       <c r="O2">
-        <v>9.240999999999998</v>
+        <v>1.451025056947608</v>
       </c>
       <c r="P2">
-        <v>7.3608</v>
+        <v>4.67</v>
       </c>
       <c r="Q2">
-        <v>0.04220642201834862</v>
+        <v>0.0302461139896373</v>
       </c>
       <c r="R2">
-        <v>9.200999999999997</v>
+        <v>1.06378132118451</v>
       </c>
       <c r="S2">
-        <v>0.03200000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="T2">
-        <v>0.004328535872741049</v>
+        <v>0.2668759811616954</v>
       </c>
       <c r="U2">
-        <v>115.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="V2">
-        <v>0.6622706422018348</v>
+        <v>0.5077720207253886</v>
       </c>
       <c r="W2">
-        <v>-0.003260856659091286</v>
+        <v>0.006792812059882114</v>
       </c>
       <c r="X2">
-        <v>0.08252008991532633</v>
+        <v>0.0669874317059061</v>
       </c>
       <c r="Y2">
-        <v>-0.08578094657441762</v>
+        <v>-0.06019461964602398</v>
       </c>
       <c r="Z2">
-        <v>1.104978212750042</v>
+        <v>1.652724320281024</v>
       </c>
       <c r="AA2">
-        <v>3.622604815850181e-05</v>
+        <v>0.04101944812220443</v>
       </c>
       <c r="AB2">
-        <v>0.08160392582993409</v>
+        <v>0.06612953444188396</v>
       </c>
       <c r="AC2">
-        <v>-0.0815676997817756</v>
+        <v>-0.02511008631967953</v>
       </c>
       <c r="AD2">
-        <v>1.427</v>
+        <v>2.536</v>
       </c>
       <c r="AE2">
-        <v>0.715606912077563</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.142606912077563</v>
+        <v>2.536</v>
       </c>
       <c r="AG2">
-        <v>-113.3573930879224</v>
+        <v>-75.864</v>
       </c>
       <c r="AH2">
-        <v>0.0121364861976046</v>
+        <v>0.01615945353519906</v>
       </c>
       <c r="AI2">
-        <v>0.006521549616397102</v>
+        <v>0.007528886461067107</v>
       </c>
       <c r="AJ2">
-        <v>-1.857020838759331</v>
+        <v>-0.9659773861668535</v>
       </c>
       <c r="AK2">
-        <v>-0.5320878988995141</v>
+        <v>-0.2935504341500411</v>
       </c>
       <c r="AL2">
-        <v>0.047</v>
+        <v>0.151</v>
       </c>
       <c r="AM2">
-        <v>0.047</v>
+        <v>0.151</v>
       </c>
       <c r="AN2">
-        <v>0.2014114326040932</v>
+        <v>0.1436827195467422</v>
       </c>
       <c r="AO2">
-        <v>96.80851063829789</v>
+        <v>97.5496688741722</v>
       </c>
       <c r="AP2">
-        <v>-15.99963205192977</v>
+        <v>-4.298243626062323</v>
       </c>
       <c r="AQ2">
-        <v>96.80851063829789</v>
+        <v>97.5496688741722</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00801</v>
+        <v>0.09390000000000001</v>
       </c>
       <c r="E3">
-        <v>-0.126</v>
+        <v>-0.08259999999999999</v>
       </c>
       <c r="G3">
-        <v>0.03363879343260787</v>
+        <v>0.05621970920840064</v>
       </c>
       <c r="H3">
-        <v>0.03363879343260787</v>
+        <v>0.05621970920840064</v>
       </c>
       <c r="I3">
-        <v>0.02703321878579611</v>
+        <v>0.04135702746365105</v>
       </c>
       <c r="J3">
-        <v>0.01498967700338155</v>
+        <v>0.02266495363362294</v>
       </c>
       <c r="K3">
-        <v>4.62</v>
+        <v>6.99</v>
       </c>
       <c r="L3">
-        <v>0.01764032073310424</v>
+        <v>0.02258481421647819</v>
       </c>
       <c r="M3">
-        <v>3.4408</v>
+        <v>4.67</v>
       </c>
       <c r="N3">
-        <v>0.02813409648405561</v>
+        <v>0.0451207729468599</v>
       </c>
       <c r="O3">
-        <v>0.7447619047619048</v>
+        <v>0.6680972818311873</v>
       </c>
       <c r="P3">
-        <v>3.4408</v>
+        <v>4.67</v>
       </c>
       <c r="Q3">
-        <v>0.02813409648405561</v>
+        <v>0.0451207729468599</v>
       </c>
       <c r="R3">
-        <v>0.7447619047619048</v>
+        <v>0.6680972818311873</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,55 +773,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>41</v>
+        <v>44.3</v>
       </c>
       <c r="V3">
-        <v>0.3352412101390025</v>
+        <v>0.4280193236714975</v>
       </c>
       <c r="W3">
-        <v>0.02336874051593323</v>
+        <v>0.0346382556987116</v>
       </c>
       <c r="X3">
-        <v>0.08173095377807764</v>
+        <v>0.06629608395392414</v>
       </c>
       <c r="Y3">
-        <v>-0.05836221326214441</v>
+        <v>-0.03165782825521254</v>
       </c>
       <c r="Z3">
-        <v>1.543311726576311</v>
+        <v>1.921322018536567</v>
       </c>
       <c r="AA3">
-        <v>0.02313374429691001</v>
+        <v>0.04354667446539012</v>
       </c>
       <c r="AB3">
-        <v>0.08160763223251712</v>
+        <v>0.06604202419794314</v>
       </c>
       <c r="AC3">
-        <v>-0.05847388793560711</v>
+        <v>-0.02249534973255302</v>
       </c>
       <c r="AD3">
-        <v>0.287</v>
+        <v>0.606</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.287</v>
+        <v>0.606</v>
       </c>
       <c r="AG3">
-        <v>-40.713</v>
+        <v>-43.694</v>
       </c>
       <c r="AH3">
-        <v>0.002341194417026275</v>
+        <v>0.005820990144660251</v>
       </c>
       <c r="AI3">
-        <v>0.001418075271633059</v>
+        <v>0.002854370578316204</v>
       </c>
       <c r="AJ3">
-        <v>-0.4990133232010002</v>
+        <v>-0.7305955924154766</v>
       </c>
       <c r="AK3">
-        <v>-0.2522693897277972</v>
+        <v>-0.2600740449745842</v>
       </c>
       <c r="AL3">
         <v>0.004</v>
@@ -830,16 +830,16 @@
         <v>0.004</v>
       </c>
       <c r="AN3">
-        <v>0.03235625704622323</v>
+        <v>0.04067114093959731</v>
       </c>
       <c r="AO3">
-        <v>1770</v>
+        <v>3200</v>
       </c>
       <c r="AP3">
-        <v>-4.589966178128524</v>
+        <v>-2.93248322147651</v>
       </c>
       <c r="AQ3">
-        <v>1770</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="4">
@@ -859,118 +859,118 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.245</v>
+        <v>0.08560000000000001</v>
       </c>
       <c r="G4">
-        <v>-0.184406779661017</v>
+        <v>-0.06212121212121212</v>
       </c>
       <c r="H4">
-        <v>-0.184406779661017</v>
+        <v>-0.06212121212121212</v>
       </c>
       <c r="I4">
-        <v>-0.07349564008188178</v>
+        <v>0.04873737373737373</v>
       </c>
       <c r="J4">
-        <v>-0.07349564008188178</v>
+        <v>0.04873737373737373</v>
       </c>
       <c r="K4">
-        <v>-3.82</v>
+        <v>-2.6</v>
       </c>
       <c r="L4">
-        <v>-0.1294915254237288</v>
+        <v>-0.06565656565656566</v>
       </c>
       <c r="M4">
-        <v>3.952</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>0.07585412667946256</v>
+        <v>0.03339882121807466</v>
       </c>
       <c r="O4">
-        <v>-1.034554973821989</v>
+        <v>-0.6538461538461539</v>
       </c>
       <c r="P4">
-        <v>3.92</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.07523992322456813</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>-1.026178010471204</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.03200000000000003</v>
+        <v>1.7</v>
       </c>
       <c r="T4">
-        <v>0.008097165991902841</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>74.5</v>
+        <v>34.1</v>
       </c>
       <c r="V4">
-        <v>1.429942418426104</v>
+        <v>0.6699410609037328</v>
       </c>
       <c r="W4">
-        <v>-0.02989045383411581</v>
+        <v>-0.02105263157894737</v>
       </c>
       <c r="X4">
-        <v>0.08330922605257503</v>
+        <v>0.06767877945788806</v>
       </c>
       <c r="Y4">
-        <v>-0.1131996798866908</v>
+        <v>-0.08873141103683542</v>
       </c>
       <c r="Z4">
-        <v>0.3137776904167422</v>
+        <v>0.7897885919425609</v>
       </c>
       <c r="AA4">
-        <v>-0.02306129220059301</v>
+        <v>0.03849222177901875</v>
       </c>
       <c r="AB4">
-        <v>0.08160021942735107</v>
+        <v>0.06621704468582477</v>
       </c>
       <c r="AC4">
-        <v>-0.1046615116279441</v>
+        <v>-0.02772482290680603</v>
       </c>
       <c r="AD4">
-        <v>1.14</v>
+        <v>1.93</v>
       </c>
       <c r="AE4">
-        <v>0.715606912077563</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.855606912077563</v>
+        <v>1.93</v>
       </c>
       <c r="AG4">
-        <v>-72.64439308792244</v>
+        <v>-32.17</v>
       </c>
       <c r="AH4">
-        <v>0.03439136390591131</v>
+        <v>0.03653227332954761</v>
       </c>
       <c r="AI4">
-        <v>0.01470887388596849</v>
+        <v>0.01549827350839155</v>
       </c>
       <c r="AJ4">
-        <v>3.535971726058355</v>
+        <v>-1.717565403096637</v>
       </c>
       <c r="AK4">
-        <v>-1.40632154824102</v>
+        <v>-0.3557447749640607</v>
       </c>
       <c r="AL4">
-        <v>0.043</v>
+        <v>0.147</v>
       </c>
       <c r="AM4">
-        <v>0.043</v>
+        <v>0.147</v>
       </c>
       <c r="AN4">
-        <v>-0.6386554621848738</v>
+        <v>0.7018181818181818</v>
       </c>
       <c r="AO4">
-        <v>-58.83720930232558</v>
+        <v>13.12925170068027</v>
       </c>
       <c r="AP4">
-        <v>40.6971389848305</v>
+        <v>-11.69818181818182</v>
       </c>
       <c r="AQ4">
-        <v>-58.83720930232558</v>
+        <v>13.12925170068027</v>
       </c>
     </row>
   </sheetData>
